--- a/game/Decide/Decide/Asset/Data/ItemData/ArmorData.xlsx
+++ b/game/Decide/Decide/Asset/Data/ItemData/ArmorData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -112,6 +112,26 @@
     <rPh sb="9" eb="11">
       <t>キタイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CRT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -500,22 +520,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -529,10 +550,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -546,10 +582,25 @@
         <v>3</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -563,10 +614,25 @@
         <v>10</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -580,10 +646,25 @@
         <v>15</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -599,8 +680,23 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -616,8 +712,23 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -633,8 +744,23 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -650,8 +776,23 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -667,8 +808,23 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -682,6 +838,21 @@
         <v>-1</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
